--- a/java_workspace/CalcKESt/src/excel_files/KestNeu.xlsx
+++ b/java_workspace/CalcKESt/src/excel_files/KestNeu.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AguF\Documents\GitHub\extraordinary-ricefarm\java_workspace\Aufgabe\src\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/41aaedf09e8ca985/Dokumente/GitHub/extraordinary-ricefarm/java_workspace/CalcKESt/src/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_66F8134267E15DC119580FC3DE8EE481FEDAC9B9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA4430BE-BD4E-41E1-972A-B5A006E67583}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14865"/>
+    <workbookView xWindow="-28920" yWindow="2295" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -162,7 +173,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
@@ -171,7 +182,7 @@
     <numFmt numFmtId="167" formatCode="0.0000;[Red]0.0000"/>
     <numFmt numFmtId="168" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -190,6 +201,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -283,7 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -326,6 +342,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -419,28 +436,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:Q22" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="A1:Q22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:Q22" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A1:Q22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="Datum"/>
-    <tableColumn id="2" name="Betrag"/>
-    <tableColumn id="3" name="Art"/>
-    <tableColumn id="4" name="Firma"/>
-    <tableColumn id="5" name="stk" dataDxfId="12"/>
-    <tableColumn id="6" name="Kurs" dataDxfId="11"/>
-    <tableColumn id="7" name="lfd Summe" dataDxfId="10"/>
-    <tableColumn id="8" name="lfd Stückzahl" dataDxfId="9"/>
-    <tableColumn id="9" name="laufender Kurs" dataDxfId="8"/>
-    <tableColumn id="10" name="Spalte1" dataDxfId="7" dataCellStyle="Währung"/>
-    <tableColumn id="11" name="einfaches mittel" dataDxfId="6" dataCellStyle="Währung"/>
-    <tableColumn id="12" name="gewichtete Mittel" dataDxfId="5" dataCellStyle="Währung"/>
-    <tableColumn id="17" name="Spalte2" dataDxfId="4" dataCellStyle="Währung">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Datum"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Betrag"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Art"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Firma"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="stk" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Kurs" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="lfd Summe" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="lfd Stückzahl" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="laufender Kurs" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Spalte1" dataDxfId="7" dataCellStyle="Währung"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="einfaches mittel" dataDxfId="6" dataCellStyle="Währung"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="gewichtete Mittel" dataDxfId="5" dataCellStyle="Währung"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Spalte2" dataDxfId="4" dataCellStyle="Währung">
       <calculatedColumnFormula>Tabelle1[[#This Row],[stk]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="durchschnitt" dataDxfId="3" dataCellStyle="Währung"/>
-    <tableColumn id="14" name="Einstandspreis" dataDxfId="2" dataCellStyle="Währung"/>
-    <tableColumn id="15" name="Gewinn" dataDxfId="1" dataCellStyle="Währung"/>
-    <tableColumn id="16" name="KESt" dataDxfId="0" dataCellStyle="Währung"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="durchschnitt" dataDxfId="3" dataCellStyle="Währung"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Einstandspreis" dataDxfId="2" dataCellStyle="Währung"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Gewinn" dataDxfId="1" dataCellStyle="Währung"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="KESt" dataDxfId="0" dataCellStyle="Währung"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -708,36 +725,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="2"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -790,7 +807,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
@@ -840,7 +857,7 @@
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:17" s="23" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="23" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>8</v>
       </c>
@@ -893,7 +910,7 @@
         <v>2.8462500000000066</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
@@ -940,7 +957,7 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>12</v>
       </c>
@@ -987,7 +1004,7 @@
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
     </row>
-    <row r="6" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
@@ -1040,7 +1057,7 @@
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
     </row>
-    <row r="7" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>14</v>
       </c>
@@ -1093,7 +1110,7 @@
         <v>-3.7181380054339233</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="37" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="37" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>15</v>
       </c>
@@ -1146,7 +1163,7 @@
         <v>-2.2661380054339149</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
@@ -1195,7 +1212,7 @@
       </c>
       <c r="Q9" s="18"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>16</v>
       </c>
@@ -1242,7 +1259,7 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
     </row>
-    <row r="11" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>17</v>
       </c>
@@ -1295,7 +1312,7 @@
         <v>0.96970445622558266</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="37" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="37" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
         <v>18</v>
       </c>
@@ -1348,7 +1365,7 @@
         <v>0.35920445622559077</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>18</v>
       </c>
@@ -1395,7 +1412,7 @@
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
     </row>
-    <row r="14" spans="1:17" s="23" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="23" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>19</v>
       </c>
@@ -1448,7 +1465,7 @@
         <v>0.75847506762358996</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>19</v>
       </c>
@@ -1495,7 +1512,7 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>19</v>
       </c>
@@ -1542,7 +1559,7 @@
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
     </row>
-    <row r="17" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>20</v>
       </c>
@@ -1589,7 +1606,7 @@
       <c r="P17" s="18"/>
       <c r="Q17" s="18"/>
     </row>
-    <row r="18" spans="1:17" s="23" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="23" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>21</v>
       </c>
@@ -1642,7 +1659,7 @@
         <v>8.5669660234530145</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -1657,7 +1674,7 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
     </row>
-    <row r="20" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="8">
         <f>SUM(B2:B18)</f>
@@ -1694,7 +1711,7 @@
         <v>7.516323992659947</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1718,7 +1735,7 @@
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1739,7 +1756,22 @@
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O28">
         <v>7.516323992659947</v>
       </c>
@@ -1754,23 +1786,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1787,7 +1819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1804,7 +1836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1821,7 +1853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1838,7 +1870,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1855,7 +1887,7 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1872,7 +1904,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1889,7 +1921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1906,7 +1938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1923,7 +1955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1940,7 +1972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1957,7 +1989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1974,7 +2006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1991,7 +2023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2008,7 +2040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2025,7 +2057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2042,7 +2074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2059,7 +2091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2076,7 +2108,7 @@
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2093,7 +2125,7 @@
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -2110,7 +2142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2127,7 +2159,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -2144,7 +2176,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
